--- a/main/static/records/Grade5.xlsx
+++ b/main/static/records/Grade5.xlsx
@@ -186,7 +186,7 @@
   </sheetPr>
   <dimension ref="B1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>

--- a/main/static/records/Grade5.xlsx
+++ b/main/static/records/Grade5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">LAST NAME</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">STUDENT ID NUMBER</t>
   </si>
   <si>
+    <t xml:space="preserve">0006610155</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yaco</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t xml:space="preserve">Grace Yaco</t>
   </si>
   <si>
-    <t xml:space="preserve">09393122717</t>
+    <t xml:space="preserve">09393122777</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -150,8 +153,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,75 +191,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="0"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
